--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H2">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I2">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J2">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09348200000000001</v>
+        <v>0.4246926666666667</v>
       </c>
       <c r="N2">
-        <v>0.280446</v>
+        <v>1.274078</v>
       </c>
       <c r="O2">
-        <v>0.005557760591445323</v>
+        <v>0.09334592376017149</v>
       </c>
       <c r="P2">
-        <v>0.007632705645359707</v>
+        <v>0.1022198317118495</v>
       </c>
       <c r="Q2">
-        <v>0.112251128996</v>
+        <v>0.5743356759226667</v>
       </c>
       <c r="R2">
-        <v>1.010260160964</v>
+        <v>5.169021083304</v>
       </c>
       <c r="S2">
-        <v>0.0004076319721811276</v>
+        <v>0.007902446232529864</v>
       </c>
       <c r="T2">
-        <v>0.0006705063643357615</v>
+        <v>0.01043103068639319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H3">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I3">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J3">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.940075666666667</v>
       </c>
       <c r="N3">
-        <v>8.820227000000001</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="O3">
-        <v>0.1747955400619086</v>
+        <v>0.6462180785551639</v>
       </c>
       <c r="P3">
-        <v>0.2400540439737208</v>
+        <v>0.707650645879068</v>
       </c>
       <c r="Q3">
-        <v>3.530378178868667</v>
+        <v>3.976028968270667</v>
       </c>
       <c r="R3">
-        <v>31.77340360981801</v>
+        <v>35.78426071443599</v>
       </c>
       <c r="S3">
-        <v>0.01282031666379706</v>
+        <v>0.05470730177132654</v>
       </c>
       <c r="T3">
-        <v>0.02108790404707545</v>
+        <v>0.07221226526001838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.200778</v>
+        <v>1.352356</v>
       </c>
       <c r="H4">
-        <v>3.602334</v>
+        <v>4.057068</v>
       </c>
       <c r="I4">
-        <v>0.07334464402956963</v>
+        <v>0.08465764667810434</v>
       </c>
       <c r="J4">
-        <v>0.08784648530804996</v>
+        <v>0.1020450778651008</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.71758</v>
+        <v>1.1848965</v>
       </c>
       <c r="N4">
-        <v>27.43516</v>
+        <v>2.369793</v>
       </c>
       <c r="O4">
-        <v>0.8155476512483529</v>
+        <v>0.2604359976846646</v>
       </c>
       <c r="P4">
-        <v>0.7466838557631301</v>
+        <v>0.1901295224090825</v>
       </c>
       <c r="Q4">
-        <v>16.47176827724</v>
+        <v>1.602401891154</v>
       </c>
       <c r="R4">
-        <v>98.83060966344001</v>
+        <v>9.614411346923999</v>
       </c>
       <c r="S4">
-        <v>0.05981605216996204</v>
+        <v>0.02204789867424794</v>
       </c>
       <c r="T4">
-        <v>0.0655935523650539</v>
+        <v>0.01940178191868925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.200778</v>
+        <v>3.197813</v>
       </c>
       <c r="H5">
-        <v>3.602334</v>
+        <v>9.593439</v>
       </c>
       <c r="I5">
-        <v>0.07334464402956963</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J5">
-        <v>0.08784648530804996</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06894633333333333</v>
+        <v>0.4246926666666667</v>
       </c>
       <c r="N5">
-        <v>0.206839</v>
+        <v>1.274078</v>
       </c>
       <c r="O5">
-        <v>0.004099048098293287</v>
+        <v>0.09334592376017149</v>
       </c>
       <c r="P5">
-        <v>0.005629394617789365</v>
+        <v>0.1022198317118495</v>
       </c>
       <c r="Q5">
-        <v>0.08278924024733333</v>
+        <v>1.358087730471333</v>
       </c>
       <c r="R5">
-        <v>0.745103162226</v>
+        <v>12.222789574242</v>
       </c>
       <c r="S5">
-        <v>0.0003006432236294054</v>
+        <v>0.0186863113663747</v>
       </c>
       <c r="T5">
-        <v>0.000494522531584849</v>
+        <v>0.02466546200286541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>9.593439</v>
       </c>
       <c r="I6">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J6">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09348200000000001</v>
+        <v>2.940075666666667</v>
       </c>
       <c r="N6">
-        <v>0.280446</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="O6">
-        <v>0.005557760591445323</v>
+        <v>0.6462180785551639</v>
       </c>
       <c r="P6">
-        <v>0.007632705645359707</v>
+        <v>0.707650645879068</v>
       </c>
       <c r="Q6">
-        <v>0.2989379548660001</v>
+        <v>9.401812187850332</v>
       </c>
       <c r="R6">
-        <v>2.690441593794</v>
+        <v>84.616309690653</v>
       </c>
       <c r="S6">
-        <v>0.001085571870784148</v>
+        <v>0.1293621803720847</v>
       </c>
       <c r="T6">
-        <v>0.00178563728553957</v>
+        <v>0.1707548312781066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>9.593439</v>
       </c>
       <c r="I7">
-        <v>0.1953254108237577</v>
+        <v>0.2001834746890973</v>
       </c>
       <c r="J7">
-        <v>0.2339455192570077</v>
+        <v>0.2412982059332244</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.940075666666667</v>
+        <v>1.1848965</v>
       </c>
       <c r="N7">
-        <v>8.820227000000001</v>
+        <v>2.369793</v>
       </c>
       <c r="O7">
-        <v>0.1747955400619086</v>
+        <v>0.2604359976846646</v>
       </c>
       <c r="P7">
-        <v>0.2400540439737208</v>
+        <v>0.1901295224090825</v>
       </c>
       <c r="Q7">
-        <v>9.401812187850334</v>
+        <v>3.789077431354499</v>
       </c>
       <c r="R7">
-        <v>84.61630969065301</v>
+        <v>22.734464588127</v>
       </c>
       <c r="S7">
-        <v>0.03414201067275288</v>
+        <v>0.05213498295063785</v>
       </c>
       <c r="T7">
-        <v>0.05615956796717667</v>
+        <v>0.04587791265225239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.197813</v>
+        <v>2.438989</v>
       </c>
       <c r="H8">
-        <v>9.593439</v>
+        <v>7.316967</v>
       </c>
       <c r="I8">
-        <v>0.1953254108237577</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J8">
-        <v>0.2339455192570077</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.71758</v>
+        <v>0.4246926666666667</v>
       </c>
       <c r="N8">
-        <v>27.43516</v>
+        <v>1.274078</v>
       </c>
       <c r="O8">
-        <v>0.8155476512483529</v>
+        <v>0.09334592376017149</v>
       </c>
       <c r="P8">
-        <v>0.7466838557631301</v>
+        <v>0.1022198317118495</v>
       </c>
       <c r="Q8">
-        <v>43.86625565254</v>
+        <v>1.035820742380667</v>
       </c>
       <c r="R8">
-        <v>263.19753391524</v>
+        <v>9.322386681426</v>
       </c>
       <c r="S8">
-        <v>0.1592971800264352</v>
+        <v>0.01425214916355736</v>
       </c>
       <c r="T8">
-        <v>0.1746833423573301</v>
+        <v>0.01881247918652739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.197813</v>
+        <v>2.438989</v>
       </c>
       <c r="H9">
-        <v>9.593439</v>
+        <v>7.316967</v>
       </c>
       <c r="I9">
-        <v>0.1953254108237577</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J9">
-        <v>0.2339455192570077</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06894633333333333</v>
+        <v>2.940075666666667</v>
       </c>
       <c r="N9">
-        <v>0.206839</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="O9">
-        <v>0.004099048098293287</v>
+        <v>0.6462180785551639</v>
       </c>
       <c r="P9">
-        <v>0.005629394617789365</v>
+        <v>0.707650645879068</v>
       </c>
       <c r="Q9">
-        <v>0.2204774810356667</v>
+        <v>7.170812210167666</v>
       </c>
       <c r="R9">
-        <v>1.984297329321</v>
+        <v>64.537309891509</v>
       </c>
       <c r="S9">
-        <v>0.0008006482537854789</v>
+        <v>0.09866522368366459</v>
       </c>
       <c r="T9">
-        <v>0.001316971646961337</v>
+        <v>0.1302356189008419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.622028</v>
+        <v>2.438989</v>
       </c>
       <c r="H10">
-        <v>4.866084</v>
+        <v>7.316967</v>
       </c>
       <c r="I10">
-        <v>0.09907498827093329</v>
+        <v>0.1526810019061423</v>
       </c>
       <c r="J10">
-        <v>0.118664281716725</v>
+        <v>0.1840394263175705</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09348200000000001</v>
+        <v>1.1848965</v>
       </c>
       <c r="N10">
-        <v>0.280446</v>
+        <v>2.369793</v>
       </c>
       <c r="O10">
-        <v>0.005557760591445323</v>
+        <v>0.2604359976846646</v>
       </c>
       <c r="P10">
-        <v>0.007632705645359707</v>
+        <v>0.1901295224090825</v>
       </c>
       <c r="Q10">
-        <v>0.151630421496</v>
+        <v>2.889949529638499</v>
       </c>
       <c r="R10">
-        <v>1.364673793464</v>
+        <v>17.339697177831</v>
       </c>
       <c r="S10">
-        <v>0.0005506350654101007</v>
+        <v>0.03976362905892035</v>
       </c>
       <c r="T10">
-        <v>0.0009057295329618017</v>
+        <v>0.0349913282302012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.622028</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H11">
-        <v>4.866084</v>
+        <v>16.331251</v>
       </c>
       <c r="I11">
-        <v>0.09907498827093329</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J11">
-        <v>0.118664281716725</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.940075666666667</v>
+        <v>0.4246926666666667</v>
       </c>
       <c r="N11">
-        <v>8.820227000000001</v>
+        <v>1.274078</v>
       </c>
       <c r="O11">
-        <v>0.1747955400619086</v>
+        <v>0.09334592376017149</v>
       </c>
       <c r="P11">
-        <v>0.2400540439737208</v>
+        <v>0.1022198317118495</v>
       </c>
       <c r="Q11">
-        <v>4.768885053452</v>
+        <v>3.467881268596334</v>
       </c>
       <c r="R11">
-        <v>42.919965481068</v>
+        <v>20.807287611578</v>
       </c>
       <c r="S11">
-        <v>0.01731786608144504</v>
+        <v>0.04771555453499284</v>
       </c>
       <c r="T11">
-        <v>0.02848584070133671</v>
+        <v>0.04198888959420681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.622028</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H12">
-        <v>4.866084</v>
+        <v>16.331251</v>
       </c>
       <c r="I12">
-        <v>0.09907498827093329</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J12">
-        <v>0.118664281716725</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.71758</v>
+        <v>2.940075666666667</v>
       </c>
       <c r="N12">
-        <v>27.43516</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="O12">
-        <v>0.8155476512483529</v>
+        <v>0.6462180785551639</v>
       </c>
       <c r="P12">
-        <v>0.7466838557631301</v>
+        <v>0.707650645879068</v>
       </c>
       <c r="Q12">
-        <v>22.25029885224</v>
+        <v>24.00755683566284</v>
       </c>
       <c r="R12">
-        <v>133.50179311344</v>
+        <v>144.045341013977</v>
       </c>
       <c r="S12">
-        <v>0.08080037398181776</v>
+        <v>0.3303267322954452</v>
       </c>
       <c r="T12">
-        <v>0.08860470341360654</v>
+        <v>0.290681997255146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.622028</v>
+        <v>8.165625500000001</v>
       </c>
       <c r="H13">
-        <v>4.866084</v>
+        <v>16.331251</v>
       </c>
       <c r="I13">
-        <v>0.09907498827093329</v>
+        <v>0.5111691289015016</v>
       </c>
       <c r="J13">
-        <v>0.118664281716725</v>
+        <v>0.4107704825084287</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06894633333333333</v>
+        <v>1.1848965</v>
       </c>
       <c r="N13">
-        <v>0.206839</v>
+        <v>2.369793</v>
       </c>
       <c r="O13">
-        <v>0.004099048098293287</v>
+        <v>0.2604359976846646</v>
       </c>
       <c r="P13">
-        <v>0.005629394617789365</v>
+        <v>0.1901295224090825</v>
       </c>
       <c r="Q13">
-        <v>0.111832883164</v>
+        <v>9.675421075260749</v>
       </c>
       <c r="R13">
-        <v>1.006495948476</v>
+        <v>38.701684301043</v>
       </c>
       <c r="S13">
-        <v>0.0004061131422603988</v>
+        <v>0.1331268420710635</v>
       </c>
       <c r="T13">
-        <v>0.0006680080688199728</v>
+        <v>0.07809959565907591</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.108010999999999</v>
+        <v>0.819627</v>
       </c>
       <c r="H14">
-        <v>16.216022</v>
+        <v>2.458881</v>
       </c>
       <c r="I14">
-        <v>0.4952449000421683</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J14">
-        <v>0.3954437701717871</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09348200000000001</v>
+        <v>0.4246926666666667</v>
       </c>
       <c r="N14">
-        <v>0.280446</v>
+        <v>1.274078</v>
       </c>
       <c r="O14">
-        <v>0.005557760591445323</v>
+        <v>0.09334592376017149</v>
       </c>
       <c r="P14">
-        <v>0.007632705645359707</v>
+        <v>0.1022198317118495</v>
       </c>
       <c r="Q14">
-        <v>0.757953084302</v>
+        <v>0.348089576302</v>
       </c>
       <c r="R14">
-        <v>4.547718505812</v>
+        <v>3.132806186718</v>
       </c>
       <c r="S14">
-        <v>0.002752452588568641</v>
+        <v>0.004789462462716735</v>
       </c>
       <c r="T14">
-        <v>0.003018305897012526</v>
+        <v>0.006321970241856721</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.108010999999999</v>
+        <v>0.819627</v>
       </c>
       <c r="H15">
-        <v>16.216022</v>
+        <v>2.458881</v>
       </c>
       <c r="I15">
-        <v>0.4952449000421683</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J15">
-        <v>0.3954437701717871</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,30 +1367,30 @@
         <v>2.940075666666667</v>
       </c>
       <c r="N15">
-        <v>8.820227000000001</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="O15">
-        <v>0.1747955400619086</v>
+        <v>0.6462180785551639</v>
       </c>
       <c r="P15">
-        <v>0.2400540439737208</v>
+        <v>0.707650645879068</v>
       </c>
       <c r="Q15">
-        <v>23.83816584616567</v>
+        <v>2.409765398443</v>
       </c>
       <c r="R15">
-        <v>143.028995076994</v>
+        <v>21.687888585987</v>
       </c>
       <c r="S15">
-        <v>0.08656659976577673</v>
+        <v>0.03315664043264277</v>
       </c>
       <c r="T15">
-        <v>0.09492787619395213</v>
+        <v>0.04376593318495506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.108010999999999</v>
+        <v>0.819627</v>
       </c>
       <c r="H16">
-        <v>16.216022</v>
+        <v>2.458881</v>
       </c>
       <c r="I16">
-        <v>0.4952449000421683</v>
+        <v>0.05130874782515448</v>
       </c>
       <c r="J16">
-        <v>0.3954437701717871</v>
+        <v>0.06184680737567548</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.71758</v>
+        <v>1.1848965</v>
       </c>
       <c r="N16">
-        <v>27.43516</v>
+        <v>2.369793</v>
       </c>
       <c r="O16">
-        <v>0.8155476512483529</v>
+        <v>0.2604359976846646</v>
       </c>
       <c r="P16">
-        <v>0.7466838557631301</v>
+        <v>0.1901295224090825</v>
       </c>
       <c r="Q16">
-        <v>111.22228953338</v>
+        <v>0.9711731636054999</v>
       </c>
       <c r="R16">
-        <v>444.88915813352</v>
+        <v>5.827038981632999</v>
       </c>
       <c r="S16">
-        <v>0.4038958150221156</v>
+        <v>0.01336264492979497</v>
       </c>
       <c r="T16">
-        <v>0.2952714790493791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>8.108010999999999</v>
-      </c>
-      <c r="H17">
-        <v>16.216022</v>
-      </c>
-      <c r="I17">
-        <v>0.4952449000421683</v>
-      </c>
-      <c r="J17">
-        <v>0.3954437701717871</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.06894633333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.206839</v>
-      </c>
-      <c r="O17">
-        <v>0.004099048098293287</v>
-      </c>
-      <c r="P17">
-        <v>0.005629394617789365</v>
-      </c>
-      <c r="Q17">
-        <v>0.5590176290763332</v>
-      </c>
-      <c r="R17">
-        <v>3.354105774458</v>
-      </c>
-      <c r="S17">
-        <v>0.002030032665707299</v>
-      </c>
-      <c r="T17">
-        <v>0.002226109031443393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2.243090333333333</v>
-      </c>
-      <c r="H18">
-        <v>6.729271</v>
-      </c>
-      <c r="I18">
-        <v>0.1370100568335712</v>
-      </c>
-      <c r="J18">
-        <v>0.1640999435464303</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.09348200000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.280446</v>
-      </c>
-      <c r="O18">
-        <v>0.005557760591445323</v>
-      </c>
-      <c r="P18">
-        <v>0.007632705645359707</v>
-      </c>
-      <c r="Q18">
-        <v>0.2096885705406667</v>
-      </c>
-      <c r="R18">
-        <v>1.887197134866</v>
-      </c>
-      <c r="S18">
-        <v>0.0007614690945013062</v>
-      </c>
-      <c r="T18">
-        <v>0.001252526565510048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.243090333333333</v>
-      </c>
-      <c r="H19">
-        <v>6.729271</v>
-      </c>
-      <c r="I19">
-        <v>0.1370100568335712</v>
-      </c>
-      <c r="J19">
-        <v>0.1640999435464303</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.940075666666667</v>
-      </c>
-      <c r="N19">
-        <v>8.820227000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.1747955400619086</v>
-      </c>
-      <c r="P19">
-        <v>0.2400540439737208</v>
-      </c>
-      <c r="Q19">
-        <v>6.594855307168556</v>
-      </c>
-      <c r="R19">
-        <v>59.353697764517</v>
-      </c>
-      <c r="S19">
-        <v>0.02394874687813687</v>
-      </c>
-      <c r="T19">
-        <v>0.03939285506417989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.243090333333333</v>
-      </c>
-      <c r="H20">
-        <v>6.729271</v>
-      </c>
-      <c r="I20">
-        <v>0.1370100568335712</v>
-      </c>
-      <c r="J20">
-        <v>0.1640999435464303</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>13.71758</v>
-      </c>
-      <c r="N20">
-        <v>27.43516</v>
-      </c>
-      <c r="O20">
-        <v>0.8155476512483529</v>
-      </c>
-      <c r="P20">
-        <v>0.7466838557631301</v>
-      </c>
-      <c r="Q20">
-        <v>30.76977109472667</v>
-      </c>
-      <c r="R20">
-        <v>184.61862656836</v>
-      </c>
-      <c r="S20">
-        <v>0.1117382300480224</v>
-      </c>
-      <c r="T20">
-        <v>0.1225307785777606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.243090333333333</v>
-      </c>
-      <c r="H21">
-        <v>6.729271</v>
-      </c>
-      <c r="I21">
-        <v>0.1370100568335712</v>
-      </c>
-      <c r="J21">
-        <v>0.1640999435464303</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.06894633333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.206839</v>
-      </c>
-      <c r="O21">
-        <v>0.004099048098293287</v>
-      </c>
-      <c r="P21">
-        <v>0.005629394617789365</v>
-      </c>
-      <c r="Q21">
-        <v>0.1546528538187778</v>
-      </c>
-      <c r="R21">
-        <v>1.391875684369</v>
-      </c>
-      <c r="S21">
-        <v>0.0005616108129107053</v>
-      </c>
-      <c r="T21">
-        <v>0.0009237833389798135</v>
+        <v>0.0117589039488637</v>
       </c>
     </row>
   </sheetData>
